--- a/data/resumes_scrubbed/confirmations/115_1.xlsx
+++ b/data/resumes_scrubbed/confirmations/115_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3323A2D7-7A34-4FB6-9637-C8BDFAC04ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:40009_{3323A2D7-7A34-4FB6-9637-C8BDFAC04ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8545EDD-BA16-41F4-A5FF-943047F3795A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="115_1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Other Civilian</t>
   </si>
@@ -46,24 +40,6 @@
     <t>Civilian</t>
   </si>
   <si>
-    <t xml:space="preserve">     Confirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unconfirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdrawn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Returned to White House </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total nominations carried over from the First Session </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total nominations received this Session </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total confirmed </t>
   </si>
   <si>
@@ -92,12 +68,90 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Returned to White House </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Other Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Other Civilian, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Other Civilian, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Other Civilian, Returned to White House </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Returned to White House </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Returned to White House </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed </t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
+  </si>
+  <si>
+    <t>Total carryover nominations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -645,6 +699,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,8 +1021,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,15 +1034,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>115</v>
@@ -992,7 +1050,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1000,7 +1058,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>42738</v>
@@ -1008,7 +1066,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>43103</v>
@@ -1016,12 +1074,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>594</v>
@@ -1029,7 +1087,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>322</v>
@@ -1037,7 +1095,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>146</v>
@@ -1045,7 +1103,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>36</v>
@@ -1053,7 +1111,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>90</v>
@@ -1061,12 +1119,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>1211</v>
@@ -1074,7 +1132,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>1200</v>
@@ -1082,7 +1140,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1090,7 +1148,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>9</v>
@@ -1098,12 +1156,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
         <v>5978</v>
@@ -1111,7 +1169,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3">
         <v>5899</v>
@@ -1119,7 +1177,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>76</v>
@@ -1127,7 +1185,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1135,7 +1193,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -1143,12 +1201,12 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <v>6617</v>
@@ -1156,7 +1214,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <v>6604</v>
@@ -1164,7 +1222,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
         <v>12</v>
@@ -1172,7 +1230,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1180,12 +1238,12 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <v>4285</v>
@@ -1193,7 +1251,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3">
         <v>4273</v>
@@ -1201,7 +1259,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
         <v>11</v>
@@ -1209,7 +1267,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -1217,12 +1275,12 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3">
         <v>1314</v>
@@ -1230,7 +1288,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3">
         <v>1314</v>
@@ -1238,12 +1296,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B36" s="3">
+        <v>19999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -1251,41 +1312,33 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B38" s="3">
-        <v>19999</v>
+        <v>19612</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="3">
-        <v>19612</v>
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
-        <v>247</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="2">
         <v>102</v>
       </c>
     </row>
